--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2562622.380119698</v>
+        <v>2666802.01457077</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.52676208877482</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>147.4560401914896</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>122.6376600081777</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>89.85922969650666</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>69.21561073240889</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>177.6639791994873</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247723</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.113188524212009</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>223.2312398514052</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1138,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>62.50058856731685</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>170.1642714312792</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>144.2507337450021</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,13 +1350,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>95.18145150012202</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1424,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>81.07546534818412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>244.3165938470683</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.16423677622376</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1819,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>98.99704524587868</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>132.73287872902</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>90.85912858529824</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>75.21356227238321</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>190.3063245427914</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>58.24570521548608</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>59.00369384633011</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>34.00490843294757</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>95.05806357631771</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2998,13 +3000,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>134.7851267360007</v>
       </c>
       <c r="T31" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>280.4563590964342</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>193.931310449427</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>35.88641949135634</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>223.0290479864242</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>80.07147829118256</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>47.1661113658481</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>223.3486291137924</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>185.0663491738894</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3986,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4135,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>158.2465685970615</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.82449082152367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1213.898819086399</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.5770176220484</v>
+        <v>652.8944183884524</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6408346941415</v>
+        <v>652.8944183884524</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U4" t="n">
-        <v>1638.191681214136</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V4" t="n">
-        <v>1547.424782530796</v>
+        <v>1391.093718466961</v>
       </c>
       <c r="W4" t="n">
-        <v>1258.007612493835</v>
+        <v>1101.67654843</v>
       </c>
       <c r="X4" t="n">
-        <v>1030.018061595818</v>
+        <v>873.6869975319826</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.2254824522881</v>
+        <v>652.8944183884524</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3255.691063293607</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3002.160586567444</v>
       </c>
       <c r="V5" t="n">
-        <v>2782.326111562134</v>
+        <v>2671.097699223873</v>
       </c>
       <c r="W5" t="n">
-        <v>2782.326111562134</v>
+        <v>2318.329043953759</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>1944.863285692679</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1554.723953716867</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686086</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080141</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068415</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.46467248647</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>846.3749096777597</v>
+        <v>847.3980557622425</v>
       </c>
       <c r="C7" t="n">
-        <v>677.4387267498528</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1924.149913215551</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1732.464029042378</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1510.697413611904</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1510.697413611904</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V7" t="n">
-        <v>1256.012925406017</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="W7" t="n">
-        <v>1256.012925406017</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="X7" t="n">
-        <v>1028.023374507999</v>
+        <v>1068.190634905773</v>
       </c>
       <c r="Y7" t="n">
-        <v>1028.023374507999</v>
+        <v>847.3980557622425</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>1664.678443125551</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1295.71592618514</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>937.4502275783891</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>551.6619749801448</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>140.6760701905372</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>129.6440240759378</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3043.432050680429</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3043.432050680429</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2712.369163336858</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2359.600508066744</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2359.600508066744</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.461176090932</v>
+        <v>2051.278283189673</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4874,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>624.6989751875257</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="C10" t="n">
-        <v>455.7627922596188</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4989,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W10" t="n">
-        <v>845.4915543310558</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X10" t="n">
-        <v>845.4915543310558</v>
+        <v>975.7672400321496</v>
       </c>
       <c r="Y10" t="n">
-        <v>624.6989751875257</v>
+        <v>754.9746608886195</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,28 +5062,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M12" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2102.574735228845</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2526.197884723913</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380886</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101817</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>572.9069687101817</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>424.9938751277886</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>424.9938751277886</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>257.7977758426685</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683283</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5276,25 +5278,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
@@ -5306,16 +5308,16 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F16" t="n">
-        <v>335.9629114732377</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000582</v>
@@ -5467,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1044.287180211981</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D19" t="n">
-        <v>415.5933575433587</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E19" t="n">
-        <v>267.6802639609656</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>267.6802639609656</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5746,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>429.5088224239596</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1026.887310050512</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2970.825600989576</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="C22" t="n">
-        <v>2801.889418061669</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D22" t="n">
-        <v>2651.772778649334</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E22" t="n">
-        <v>2651.772778649334</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>2504.882831151423</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.33114932884</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4145.357854104211</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3890.673365898324</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3601.256195861363</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3373.266644963346</v>
+        <v>952.0555849625741</v>
       </c>
       <c r="Y22" t="n">
-        <v>3152.474065819816</v>
+        <v>731.263005819044</v>
       </c>
     </row>
     <row r="23">
@@ -5966,22 +5968,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -5993,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>2546.907945506608</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L24" t="n">
-        <v>3042.233551722367</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M24" t="n">
-        <v>3639.612039348919</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>636.6680198981028</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578602</v>
@@ -6181,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1628.786163100837</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1339.368993063877</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1111.379442165859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399322</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>3658.217393399322</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>4210.127123638609</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3229.995673940461</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C28" t="n">
-        <v>3061.059491012554</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D28" t="n">
-        <v>2910.942851600219</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>2763.029758017825</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650995</v>
+        <v>2350.944837543576</v>
       </c>
       <c r="T28" t="n">
-        <v>4404.185983673937</v>
+        <v>2131.343372566517</v>
       </c>
       <c r="U28" t="n">
-        <v>4115.110757018135</v>
+        <v>1842.268145910715</v>
       </c>
       <c r="V28" t="n">
-        <v>3860.426268812248</v>
+        <v>1587.583657704828</v>
       </c>
       <c r="W28" t="n">
-        <v>3860.426268812248</v>
+        <v>1298.166487667867</v>
       </c>
       <c r="X28" t="n">
-        <v>3632.436717914231</v>
+        <v>1070.17693676985</v>
       </c>
       <c r="Y28" t="n">
-        <v>3411.644138770701</v>
+        <v>849.3843576263199</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>2565.513299557012</v>
       </c>
       <c r="M30" t="n">
-        <v>1231.938859683105</v>
+        <v>3087.702309109632</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832229</v>
+        <v>3025.224490384403</v>
       </c>
       <c r="C31" t="n">
-        <v>634.927936255316</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4487.640855988368</v>
       </c>
       <c r="T31" t="n">
-        <v>1978.396372297858</v>
+        <v>4268.03939101131</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>3978.964164355508</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>3724.279676149621</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>3434.86250611266</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>3206.872955214643</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134626</v>
+        <v>3206.872955214643</v>
       </c>
     </row>
     <row r="32">
@@ -6680,49 +6682,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>702.4944101284095</v>
+        <v>3044.507496087131</v>
       </c>
       <c r="C34" t="n">
-        <v>533.5582272005026</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="D34" t="n">
-        <v>383.4415877881669</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="E34" t="n">
-        <v>235.5284942057738</v>
+        <v>2875.571313159224</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>1877.026663243044</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.342175037157</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="W34" t="n">
-        <v>1332.925005000197</v>
+        <v>3642.838752636079</v>
       </c>
       <c r="X34" t="n">
-        <v>1104.935454102179</v>
+        <v>3446.948540060901</v>
       </c>
       <c r="Y34" t="n">
-        <v>884.1428749586493</v>
+        <v>3226.155960917371</v>
       </c>
     </row>
     <row r="35">
@@ -6929,22 +6931,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6956,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3260.450525729771</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C37" t="n">
-        <v>3091.514342801865</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D37" t="n">
-        <v>2941.397703389529</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E37" t="n">
-        <v>2793.484609807136</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F37" t="n">
-        <v>2646.594662309225</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>2479.398563024105</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866303</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>4654.584243821465</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>4654.584243821465</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4434.982778844406</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="U37" t="n">
-        <v>4434.982778844406</v>
+        <v>4151.857387650098</v>
       </c>
       <c r="V37" t="n">
-        <v>4180.29829063852</v>
+        <v>3897.172899444211</v>
       </c>
       <c r="W37" t="n">
-        <v>3890.881120601559</v>
+        <v>3607.75572940725</v>
       </c>
       <c r="X37" t="n">
-        <v>3662.891569703541</v>
+        <v>3382.473862754297</v>
       </c>
       <c r="Y37" t="n">
-        <v>3442.098990560011</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
     <row r="38">
@@ -7160,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>695.5020655703109</v>
+        <v>3160.17996888056</v>
       </c>
       <c r="C40" t="n">
-        <v>695.5020655703109</v>
+        <v>2991.243785952653</v>
       </c>
       <c r="D40" t="n">
-        <v>545.3854261579752</v>
+        <v>2841.127146540317</v>
       </c>
       <c r="E40" t="n">
-        <v>545.3854261579752</v>
+        <v>2841.127146540317</v>
       </c>
       <c r="F40" t="n">
-        <v>398.4954786600648</v>
+        <v>2694.237199042407</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>2527.041099757287</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2385.329268599485</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4334.712221995194</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>4080.027733789308</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3790.610563752347</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>3562.62101285433</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>3341.8284337108</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N42" t="n">
-        <v>4437.229386686351</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>4437.229386686351</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>762.5348780504994</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C43" t="n">
-        <v>762.5348780504994</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V43" t="n">
-        <v>1682.382642959247</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="W43" t="n">
-        <v>1392.965472922287</v>
+        <v>3931.91397929188</v>
       </c>
       <c r="X43" t="n">
-        <v>1164.975922024269</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y43" t="n">
-        <v>944.1833428807391</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="44">
@@ -7628,10 +7630,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7725,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>175.8744207939072</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M45" t="n">
-        <v>1074.481071167373</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>929.7309773356195</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C46" t="n">
         <v>929.7309773356195</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V46" t="n">
-        <v>1849.578742244367</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W46" t="n">
-        <v>1560.161572207407</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X46" t="n">
-        <v>1332.172021309389</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.379442165859</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.728406165343709e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23312,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>59.21924749803976</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>7.821049476759669</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>147.3599015160451</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>126.7126101431585</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>15.88259428919235</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>74.66500970697061</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>210.9709121168609</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>35.40333084624572</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>193.1339494774979</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.4161395899837</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>85.96822242532689</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>46.24115926564389</v>
       </c>
       <c r="T31" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>5.728115292809946</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>31.77834493961015</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>30.48882721876534</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2.680607402612907</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>85.45266000108629</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>34.09972495271742</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25837,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>28.78901421003556</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>40.64330621514776</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>9.000252501566337</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.3131525023043</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914268</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
-        <v>645717.2797520048</v>
-      </c>
       <c r="I2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="N2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="O2" t="n">
+        <v>645717.2797520052</v>
+      </c>
+      <c r="P2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="O2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="P2" t="n">
-        <v>645717.2797520049</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813245</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678117</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556916</v>
+        <v>-869589.3934556918</v>
       </c>
       <c r="C6" t="n">
         <v>459155.352271901</v>
       </c>
       <c r="D6" t="n">
-        <v>459155.3522719009</v>
+        <v>459155.352271901</v>
       </c>
       <c r="E6" t="n">
-        <v>208625.1998339613</v>
+        <v>208625.1998339614</v>
       </c>
       <c r="F6" t="n">
+        <v>534037.6616413168</v>
+      </c>
+      <c r="G6" t="n">
+        <v>534037.661641317</v>
+      </c>
+      <c r="H6" t="n">
+        <v>534037.6616413167</v>
+      </c>
+      <c r="I6" t="n">
+        <v>534037.6616413167</v>
+      </c>
+      <c r="J6" t="n">
+        <v>316506.4592440391</v>
+      </c>
+      <c r="K6" t="n">
         <v>534037.6616413166</v>
       </c>
-      <c r="G6" t="n">
-        <v>534037.6616413167</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>534037.661641317</v>
+      </c>
+      <c r="M6" t="n">
+        <v>448982.6337058051</v>
+      </c>
+      <c r="N6" t="n">
+        <v>534037.661641317</v>
+      </c>
+      <c r="O6" t="n">
+        <v>534037.661641317</v>
+      </c>
+      <c r="P6" t="n">
         <v>534037.6616413165</v>
-      </c>
-      <c r="I6" t="n">
-        <v>534037.6616413168</v>
-      </c>
-      <c r="J6" t="n">
-        <v>316506.4592440393</v>
-      </c>
-      <c r="K6" t="n">
-        <v>534037.6616413164</v>
-      </c>
-      <c r="L6" t="n">
-        <v>534037.6616413167</v>
-      </c>
-      <c r="M6" t="n">
-        <v>448982.633705805</v>
-      </c>
-      <c r="N6" t="n">
-        <v>534037.6616413167</v>
-      </c>
-      <c r="O6" t="n">
-        <v>534037.6616413165</v>
-      </c>
-      <c r="P6" t="n">
-        <v>534037.6616413166</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.401455402293</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26819,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26987,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289.2070795747057</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>201.7849285259234</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>25.97781301003468</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>162.2784136273214</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>134.7023594072112</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>150.0882792706476</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>85.81896414583532</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>2.478415537631918</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27858,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>232.1071758200036</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>33.75369870834092</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>4.364739273210262</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28059,7 +28061,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>130.5282038889151</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28390,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31844,22 +31846,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>384.4721492652009</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>167.1165249313368</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>526.2989357561996</v>
+        <v>302.5540177178169</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32098,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32236,7 +32238,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L17" t="n">
         <v>867.846407116256</v>
@@ -32312,13 +32314,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>152.5685698206132</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,19 +32557,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>490.507583235568</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>687.544841654958</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32789,7 +32791,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>456.3459017226589</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>383.9182138639285</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33205,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>301.1823051500301</v>
+        <v>669.5976799347659</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>134.7284881171895</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>514.8598010172136</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>650.5350891770659</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>353.1300748477945</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,22 +34447,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>207.939011051685</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>245.9177694853267</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.13475084531527</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>394.9572236728663</v>
+        <v>171.2123056344836</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35746,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,7 +35886,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35960,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,19 +36205,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>351.9532034556938</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2031295716247</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>318.5044627482999</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>249.9438064495983</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>159.0482712280117</v>
+        <v>527.4636460127475</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.7540807028592577</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>376.3054212373395</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>519.1933770937326</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>219.1556674334643</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38017,7 +38019,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38093,22 +38095,22 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>81.10138438501833</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2666802.01457077</v>
+        <v>2662789.404556776</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>147.4560401914896</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>23.79925355567548</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>122.6376600081777</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>196.1669922308553</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>69.21561073240889</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.15549162507455</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>223.2312398514052</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>62.50058856731685</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.7944255145757</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>130.7976098817785</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1353,10 +1353,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>95.18145150012202</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722627</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1539,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>244.3165938470683</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>98.99704524587868</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>132.73287872902</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>190.3063245427914</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>58.24570521548608</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>95.05806357631771</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>134.7851267360007</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>193.931310449427</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3325,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>223.0290479864242</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>47.1661113658481</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>251.7801198313581</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3954,16 +3954,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>185.0663491738894</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>158.2465685970615</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,22 +4330,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792696</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2735.306770649777</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
         <v>1685.951113992584</v>
@@ -4433,22 +4433,22 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>652.8944183884524</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>652.8944183884524</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672848</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.093718466961</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.67654843</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>873.6869975319826</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>652.8944183884524</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1168.124113652745</v>
+        <v>2245.732315283596</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1876.769798343184</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>1518.504099736434</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>1132.71584713819</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>721.7299423485822</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>306.6574921935787</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3255.691063293607</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3002.160586567444</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2671.097699223873</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W5" t="n">
-        <v>2318.329043953759</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X5" t="n">
-        <v>1944.863285692679</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y5" t="n">
-        <v>1554.723953716867</v>
+        <v>2245.732315283596</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>1378.708694614561</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>936.5735814686086</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>920.7416649986314</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>1525.704024291644</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>847.3980557622425</v>
+        <v>934.4107598040977</v>
       </c>
       <c r="C7" t="n">
-        <v>678.4618728343356</v>
+        <v>765.4745768761908</v>
       </c>
       <c r="D7" t="n">
-        <v>528.3452334219999</v>
+        <v>615.357937463855</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>615.357937463855</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>468.4679899659446</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>300.7651533406636</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>154.5479665585214</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1548.361223971665</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1293.676735765778</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.676735765778</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.190634905773</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y7" t="n">
-        <v>847.3980557622425</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125551</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>937.4502275783891</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>551.6619749801448</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>140.6760701905372</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>129.6440240759378</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
@@ -4825,7 +4825,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4889,16 +4889,16 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>754.9746608886195</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>295.9565914742203</v>
       </c>
       <c r="H10" t="n">
         <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335303</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1071.910120335303</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>975.7672400321496</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>754.9746608886195</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5020,10 +5020,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,28 +5053,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.506784258106</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V13" t="n">
-        <v>1797.722346028744</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W13" t="n">
-        <v>1508.305175991783</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.8461362382112</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>472.9099533103043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1044.287180211981</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>823.4946010684509</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,22 +5533,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>952.0555849625741</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.263005819044</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5968,46 +5968,46 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6022,7 +6022,7 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>636.6680198981028</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>467.7318369701959</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263199</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2350.944837543576</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T28" t="n">
-        <v>2131.343372566517</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U28" t="n">
-        <v>1842.268145910715</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V28" t="n">
-        <v>1587.583657704828</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.166487667867</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X28" t="n">
-        <v>1070.17693676985</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y28" t="n">
-        <v>849.3843576263199</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>2565.513299557012</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3087.702309109632</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3025.224490384403</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>2856.288307456496</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>2856.288307456496</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>2708.375213874103</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4487.640855988368</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.03939101131</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3978.964164355508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.279676149621</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>3434.86250611266</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>3206.872955214643</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>3206.872955214643</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,13 +6727,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123003</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3044.507496087131</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.25592267304</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3642.838752636079</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3446.948540060901</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3226.155960917371</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>949.9304447718132</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3200.825397924057</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.88921499615</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>4151.857387650098</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.172899444211</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>3607.75572940725</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>3382.473862754297</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>3382.473862754297</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,28 +7162,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
@@ -7192,31 +7192,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3160.17996888056</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>2991.243785952653</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>2841.127146540317</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>2841.127146540317</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>2694.237199042407</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>2527.041099757287</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2385.329268599485</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>4623.787448650996</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4623.787448650996</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>4334.712221995194</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>4080.027733789308</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W40" t="n">
-        <v>3790.610563752347</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X40" t="n">
-        <v>3562.62101285433</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>3341.8284337108</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>4221.331149328841</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3931.91397929188</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1089.57599612053</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>2264.108249235165</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>2009.423761029278</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1720.006590992317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1492.0170400943</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1271.22446095077</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.728406165343709e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>30.95754073885419</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>7.821049476759669</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>126.7126101431585</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>15.88259428919235</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>35.40333084624572</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>85.96822242532689</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>46.24115926564389</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>31.77834493961015</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.680607402612907</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>34.09972495271742</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>34.74287850523291</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25842,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>40.64330621514776</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776548.3731457029</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.373145703</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776548.3731457031</v>
+        <v>776548.373145703</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
         <v>656833.4158914265</v>
@@ -26325,37 +26325,37 @@
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520052</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="L2" t="n">
+        <v>645717.279752005</v>
+      </c>
+      <c r="M2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.2797520052</v>
-      </c>
       <c r="N2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520052</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813248</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813245</v>
+        <v>89744.12305813249</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813255</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678117</v>
+      </c>
+      <c r="F4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10557.08828678127</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678115</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
-        <v>10557.0882867812</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556918</v>
+        <v>-869589.3934556919</v>
       </c>
       <c r="C6" t="n">
-        <v>459155.352271901</v>
+        <v>459155.3522719007</v>
       </c>
       <c r="D6" t="n">
-        <v>459155.352271901</v>
+        <v>459155.3522719006</v>
       </c>
       <c r="E6" t="n">
-        <v>208625.1998339614</v>
+        <v>208277.8205796042</v>
       </c>
       <c r="F6" t="n">
-        <v>534037.6616413168</v>
+        <v>533690.28238696</v>
       </c>
       <c r="G6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="H6" t="n">
-        <v>534037.6616413167</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="I6" t="n">
-        <v>534037.6616413167</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="J6" t="n">
-        <v>316506.4592440391</v>
+        <v>316159.0799896822</v>
       </c>
       <c r="K6" t="n">
-        <v>534037.6616413166</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="L6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="M6" t="n">
-        <v>448982.6337058051</v>
+        <v>448635.2544514477</v>
       </c>
       <c r="N6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.2823869598</v>
       </c>
       <c r="O6" t="n">
-        <v>534037.661641317</v>
+        <v>533690.28238696</v>
       </c>
       <c r="P6" t="n">
-        <v>534037.6616413165</v>
+        <v>533690.2823869598</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,31 +26792,31 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099649</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>201.7849285259234</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>362.4386851003781</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>25.97781301003468</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>172.2573809594889</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>98.44077215646513</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>134.7023594072112</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>9.196928784763543</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.478415537631918</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>232.1071758200036</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>111.4435131414779</v>
       </c>
     </row>
     <row r="9">
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13.95740503254231</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28073,10 +28073,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>130.5282038889151</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>384.4721492652009</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>490.507583235568</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>669.5976799347659</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,13 +33514,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33742,19 +33742,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>514.8598010172136</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33970,13 +33970,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473073</v>
@@ -33985,19 +33985,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>681.5735157229393</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
@@ -34207,7 +34207,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,19 +34216,19 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>545.3845241768652</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>207.939011051685</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>245.9177694853267</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367765</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902943</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>351.9532034556938</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>527.4636460127475</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,13 +37162,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,19 +37390,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>376.3054212373395</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.3288951674331</v>
@@ -37633,19 +37633,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>550.231803639606</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,19 +37864,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>406.830144396991</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>81.10138438501833</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_16_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2662789.404556776</v>
+        <v>2664549.934859561</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>49.87303154284804</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.79925355567548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.76343456052604</v>
       </c>
       <c r="W4" t="n">
-        <v>114.2656173771021</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>196.1669922308553</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.15549162507455</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>177.2979137777578</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145757</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>130.7976098817785</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>246.0270494398464</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,13 +1378,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722627</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1539,10 +1539,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>35.41770597126747</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>51.35059460820207</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>9.146142788179931</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,10 +1855,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>26.13627195705896</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788174979</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,16 +3717,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>251.7801198313581</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855436</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>942.9472709150248</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>531.9613661254173</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>116.8889159704137</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2755.806928794325</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919558</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686067</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>846.0716871064742</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4485,19 +4485,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,25 +4509,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1837.464090846021</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X4" t="n">
         <v>1494.054724415577</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2245.732315283596</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1876.769798343184</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1518.504099736434</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1132.71584713819</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>721.7299423485822</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>306.6574921935787</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X5" t="n">
-        <v>2635.871647259408</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y5" t="n">
-        <v>2245.732315283596</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,7 +4649,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>934.4107598040977</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C7" t="n">
-        <v>765.4745768761908</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D7" t="n">
-        <v>615.357937463855</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E7" t="n">
-        <v>615.357937463855</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F7" t="n">
-        <v>468.4679899659446</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G7" t="n">
-        <v>300.7651533406636</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>154.5479665585214</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
         <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520487</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520487</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520487</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>463.6594280995014</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>463.6594280995014</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>463.6594280995014</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>463.6594280995014</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>463.6594280995014</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>295.9565914742203</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>1457.015761506659</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>1229.026210608642</v>
       </c>
       <c r="Y10" t="n">
-        <v>645.3078929297411</v>
+        <v>1008.233631465111</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2411.187623003223</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S13" t="n">
-        <v>2411.187623003223</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>2191.586158026164</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1902.510931370362</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.826443164475</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1358.409273127515</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5257,31 +5257,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,19 +5351,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
         <v>1520.445529061503</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5536,28 +5536,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,16 +5770,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6126,58 +6126,58 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
         <v>1746.193029533436</v>
@@ -6217,31 +6217,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057244</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778176</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282754</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458823</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1755.431557602304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7830,7 +7830,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
         <v>2254.869721166297</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>30.95754073885419</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>128.4813855737352</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.22910392194173</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>191.2691783702293</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.22910392194671</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>34.74287850523291</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457031</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>776548.373145703</v>
+        <v>776548.3731457029</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914266</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="F2" t="n">
-        <v>645717.2797520054</v>
-      </c>
-      <c r="G2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="M2" t="n">
         <v>645717.2797520049</v>
@@ -26352,7 +26352,7 @@
         <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.279752005</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813248</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
+        <v>89744.12305813254</v>
+      </c>
+      <c r="D4" t="n">
         <v>89744.12305813249</v>
       </c>
-      <c r="D4" t="n">
-        <v>89744.12305813255</v>
-      </c>
       <c r="E4" t="n">
-        <v>10557.08828678117</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
         <v>10557.08828678121</v>
@@ -26435,7 +26435,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678115</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26456,7 +26456,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-869589.3934556919</v>
+        <v>-869589.3934556914</v>
       </c>
       <c r="C6" t="n">
         <v>459155.3522719007</v>
@@ -26530,40 +26530,40 @@
         <v>459155.3522719006</v>
       </c>
       <c r="E6" t="n">
-        <v>208277.8205796042</v>
+        <v>208590.4619085254</v>
       </c>
       <c r="F6" t="n">
-        <v>533690.28238696</v>
+        <v>534002.9237158807</v>
       </c>
       <c r="G6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.923715881</v>
       </c>
       <c r="H6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="I6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158808</v>
       </c>
       <c r="J6" t="n">
-        <v>316159.0799896822</v>
+        <v>316471.7213186034</v>
       </c>
       <c r="K6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158808</v>
       </c>
       <c r="L6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.923715881</v>
       </c>
       <c r="M6" t="n">
-        <v>448635.2544514477</v>
+        <v>448947.8957803689</v>
       </c>
       <c r="N6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.9237158811</v>
       </c>
       <c r="O6" t="n">
-        <v>533690.28238696</v>
+        <v>534002.923715881</v>
       </c>
       <c r="P6" t="n">
-        <v>533690.2823869598</v>
+        <v>534002.923715881</v>
       </c>
     </row>
   </sheetData>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>244.7347328444724</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>362.4386851003781</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27593,16 +27593,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.374208763302</v>
       </c>
       <c r="W4" t="n">
-        <v>172.2573809594889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>98.44077215646513</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>9.196928784763543</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923771</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>13.95740503254231</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,16 +28064,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.110593883981608</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28098,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29699,7 +29699,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,19 +32080,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191269</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,7 +37864,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,7 +37873,7 @@
         <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
